--- a/data_year/zb/教育/教育经费/民办学校办学经费.xlsx
+++ b/data_year/zb/教育/教育经费/民办学校办学经费.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,73 +558,141 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>244849.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56022.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>129023.1</v>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>18327.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36080.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>129501.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>281120</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6372.9</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>10522</v>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>244849.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>146140.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>129501.9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>98709.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>269646.9</v>
+      </c>
       <c r="V2" t="n">
-        <v>858537</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>1054254</v>
+      </c>
+      <c r="W2" t="n">
+        <v>112</v>
+      </c>
+      <c r="X2" t="n">
+        <v>56105.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>269646.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>215221.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58264.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128687.6</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>41210.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48293.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>149896.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>292425.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7934.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>7359</v>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>215221.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>138231</v>
+      </c>
+      <c r="S3" t="n">
+        <v>149896.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>76990.10000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>332915.3</v>
+      </c>
       <c r="V3" t="n">
-        <v>1280895</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>1119320</v>
+      </c>
+      <c r="W3" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>55130.3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>332915.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -648,7 +716,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1725549</v>
+        <v>1281753</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -657,7 +725,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -681,7 +749,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>2590148</v>
+        <v>1474089</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -690,7 +758,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -714,7 +782,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>3478529</v>
+        <v>1313476</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
@@ -723,7 +791,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -747,7 +815,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>4522185</v>
+        <v>1876620</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
@@ -756,7 +824,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -780,7 +848,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>5490583</v>
+        <v>2032733</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
@@ -789,601 +857,167 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>281572.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25660.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73563.39999999999</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>14992.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18069.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>134938.3</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>6219.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>355</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>433</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6989.1</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>281217.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>124959.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>134938.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>156258.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>318788</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>809337</v>
-      </c>
-      <c r="W9" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>34694.2</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>319221</v>
-      </c>
+        <v>2250061.1078</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>196998.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>37435.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>94753.5</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>21037</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21073.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>104856.5</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1982.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>3538.4</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>196993.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>109348.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>104856.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>87645.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>301686.5</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>698479</v>
-      </c>
-      <c r="W10" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>51797.1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>301686.5</v>
-      </c>
+        <v>2406209.771</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>178384</v>
-      </c>
-      <c r="C11" t="n">
-        <v>57842</v>
-      </c>
-      <c r="D11" t="n">
-        <v>127871</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>22314</v>
-      </c>
-      <c r="G11" t="n">
-        <v>28366</v>
-      </c>
-      <c r="H11" t="n">
-        <v>112522</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5420</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>7639</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>178384</v>
-      </c>
-      <c r="R11" t="n">
-        <v>107812</v>
-      </c>
-      <c r="S11" t="n">
-        <v>112522</v>
-      </c>
-      <c r="T11" t="n">
-        <v>70572</v>
-      </c>
-      <c r="U11" t="n">
-        <v>330962</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>749829</v>
-      </c>
-      <c r="W11" t="n">
-        <v>90</v>
-      </c>
-      <c r="X11" t="n">
-        <v>56969</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>330962</v>
-      </c>
+        <v>2201303.9167</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>244849.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>56022.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>129023.1</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>18327.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>36080.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>129501.9</v>
-      </c>
-      <c r="I12" t="n">
-        <v>281120</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6372.9</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>10522</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>244849.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>146140.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>129501.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>98709.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>269646.9</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>1054254</v>
-      </c>
-      <c r="W12" t="n">
-        <v>112</v>
-      </c>
-      <c r="X12" t="n">
-        <v>56105.8</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>269646.9</v>
-      </c>
+        <v>2292515.6342</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>215221.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>58264.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>128687.6</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>41210.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>48293.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>149896.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>292425.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7934.1</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>7359</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>215221.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>138231</v>
-      </c>
-      <c r="S13" t="n">
-        <v>149896.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>76990.10000000001</v>
-      </c>
-      <c r="U13" t="n">
-        <v>332915.3</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>1119320</v>
-      </c>
-      <c r="W13" t="n">
-        <v>173.9</v>
-      </c>
-      <c r="X13" t="n">
-        <v>55130.3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>332915.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
-        <v>1281753</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="n">
-        <v>1474089</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>1313476</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
-        <v>1876620</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="n">
-        <v>2032733</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="n">
-        <v>2250061.10778</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="n">
-        <v>2406209.771</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="n">
-        <v>2201303.916715</v>
-      </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2423821.5</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
